--- a/data/datacall_template/00template/Eel_Data_Call_2022_Annex7_Releases.xlsx
+++ b/data/datacall_template/00template/Eel_Data_Call_2022_Annex7_Releases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="-16320" windowWidth="24360" windowHeight="14370" tabRatio="500"/>
+    <workbookView xWindow="360" yWindow="-16320" windowWidth="24330" windowHeight="14370" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="existing_discarded" sheetId="15" r:id="rId4"/>
     <sheet name="new_data" sheetId="3" r:id="rId5"/>
     <sheet name="updated_data" sheetId="16" r:id="rId6"/>
-    <sheet name="Deleted_data" sheetId="17" r:id="rId7"/>
+    <sheet name="deleted_data" sheetId="17" r:id="rId7"/>
     <sheet name="tr_typeseries_ser" sheetId="4" r:id="rId8"/>
     <sheet name="tr_emu_em" sheetId="5" r:id="rId9"/>
     <sheet name="tr_country_cou" sheetId="6" r:id="rId10"/>
@@ -24,7 +24,7 @@
     <sheet name="missing values" sheetId="11" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Deleted_data!$B$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">deleted_data!$B$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">existing_discarded!$A$1:$P$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">existing_kept!$A$1:$P$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">updated_data!$B$1:$K$1</definedName>
@@ -1963,13 +1963,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2291,28 +2298,28 @@
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2322,23 +2329,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2348,50 +2355,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="8" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="9" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="11" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="6" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="9" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="11" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="6">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="12" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2513,7 +2520,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3084,7 +3091,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3248,7 +3255,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3334,7 +3341,7 @@
         <xdr:cNvPr id="2068" name="_x0000_t202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000014080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3383,7 +3390,7 @@
         <xdr:cNvPr id="2066" name="_x0000_t202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000012080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3432,7 +3439,7 @@
         <xdr:cNvPr id="2064" name="_x0000_t202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000010080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3481,7 +3488,7 @@
         <xdr:cNvPr id="2062" name="_x0000_t202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000E080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3530,7 +3537,7 @@
         <xdr:cNvPr id="2060" name="_x0000_t202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000C080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3579,7 +3586,7 @@
         <xdr:cNvPr id="2058" name="_x0000_t202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3628,7 +3635,7 @@
         <xdr:cNvPr id="2056" name="_x0000_t202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3677,7 +3684,7 @@
         <xdr:cNvPr id="2054" name="_x0000_t202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3726,7 +3733,7 @@
         <xdr:cNvPr id="2052" name="_x0000_t202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3775,7 +3782,7 @@
         <xdr:cNvPr id="2050" name="_x0000_t202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3824,7 +3831,7 @@
         <xdr:cNvPr id="2" name="AutoShape 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3878,7 +3885,7 @@
         <xdr:cNvPr id="3" name="AutoShape 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3932,7 +3939,7 @@
         <xdr:cNvPr id="4" name="AutoShape 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3986,7 +3993,7 @@
         <xdr:cNvPr id="5" name="AutoShape 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4040,7 +4047,7 @@
         <xdr:cNvPr id="6" name="AutoShape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4094,7 +4101,7 @@
         <xdr:cNvPr id="7" name="AutoShape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4148,7 +4155,7 @@
         <xdr:cNvPr id="8" name="AutoShape 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4202,7 +4209,7 @@
         <xdr:cNvPr id="9" name="AutoShape 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4256,7 +4263,7 @@
         <xdr:cNvPr id="10" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4310,7 +4317,7 @@
         <xdr:cNvPr id="11" name="AutoShape 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4364,7 +4371,7 @@
         <xdr:cNvPr id="12" name="AutoShape 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4418,7 +4425,7 @@
         <xdr:cNvPr id="13" name="AutoShape 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4472,7 +4479,7 @@
         <xdr:cNvPr id="14" name="AutoShape 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4526,7 +4533,7 @@
         <xdr:cNvPr id="15" name="AutoShape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4580,7 +4587,7 @@
         <xdr:cNvPr id="16" name="AutoShape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4634,7 +4641,7 @@
         <xdr:cNvPr id="17" name="AutoShape 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4688,7 +4695,7 @@
         <xdr:cNvPr id="18" name="AutoShape 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4742,7 +4749,7 @@
         <xdr:cNvPr id="19" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4796,7 +4803,7 @@
         <xdr:cNvPr id="20" name="AutoShape 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4850,7 +4857,7 @@
         <xdr:cNvPr id="21" name="AutoShape 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4904,7 +4911,7 @@
         <xdr:cNvPr id="22" name="AutoShape 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4958,7 +4965,7 @@
         <xdr:cNvPr id="23" name="AutoShape 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5012,7 +5019,7 @@
         <xdr:cNvPr id="24" name="AutoShape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5066,7 +5073,7 @@
         <xdr:cNvPr id="25" name="AutoShape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5120,7 +5127,7 @@
         <xdr:cNvPr id="26" name="AutoShape 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5174,7 +5181,7 @@
         <xdr:cNvPr id="27" name="AutoShape 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5228,7 +5235,7 @@
         <xdr:cNvPr id="28" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5282,7 +5289,7 @@
         <xdr:cNvPr id="30" name="AutoShape 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5336,7 +5343,7 @@
         <xdr:cNvPr id="31" name="AutoShape 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5390,7 +5397,7 @@
         <xdr:cNvPr id="32" name="AutoShape 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5444,7 +5451,7 @@
         <xdr:cNvPr id="33" name="AutoShape 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5498,7 +5505,7 @@
         <xdr:cNvPr id="34" name="AutoShape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5552,7 +5559,7 @@
         <xdr:cNvPr id="35" name="AutoShape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5606,7 +5613,7 @@
         <xdr:cNvPr id="36" name="AutoShape 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5660,7 +5667,7 @@
         <xdr:cNvPr id="37" name="AutoShape 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5714,7 +5721,7 @@
         <xdr:cNvPr id="38" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5768,7 +5775,7 @@
         <xdr:cNvPr id="2048" name="AutoShape 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000000080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000000080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5822,7 +5829,7 @@
         <xdr:cNvPr id="2049" name="AutoShape 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5876,7 +5883,7 @@
         <xdr:cNvPr id="2051" name="AutoShape 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5930,7 +5937,7 @@
         <xdr:cNvPr id="2053" name="AutoShape 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5984,7 +5991,7 @@
         <xdr:cNvPr id="2055" name="AutoShape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000007080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6038,7 +6045,7 @@
         <xdr:cNvPr id="2057" name="AutoShape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000009080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6092,7 +6099,7 @@
         <xdr:cNvPr id="2059" name="AutoShape 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000B080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6146,7 +6153,7 @@
         <xdr:cNvPr id="2061" name="AutoShape 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000D080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6200,7 +6207,7 @@
         <xdr:cNvPr id="2063" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000F080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6254,7 +6261,7 @@
         <xdr:cNvPr id="2065" name="AutoShape 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2F316FC-25C1-4DE1-8B96-5D2B1FCC6B9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2F316FC-25C1-4DE1-8B96-5D2B1FCC6B9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6308,7 +6315,7 @@
         <xdr:cNvPr id="2067" name="AutoShape 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A73EF7C-82AB-42FC-A3E3-91A5E4B13FFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A73EF7C-82AB-42FC-A3E3-91A5E4B13FFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6362,7 +6369,7 @@
         <xdr:cNvPr id="2069" name="AutoShape 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE7019D2-8E2D-492F-A6F6-50B53859C9A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE7019D2-8E2D-492F-A6F6-50B53859C9A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6416,7 +6423,7 @@
         <xdr:cNvPr id="2070" name="AutoShape 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6383CFB-4BF0-4561-BD9A-D14DD75BC3D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6383CFB-4BF0-4561-BD9A-D14DD75BC3D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6470,7 +6477,7 @@
         <xdr:cNvPr id="2071" name="AutoShape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E589FF6-FED1-4F46-9398-9C2789394498}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E589FF6-FED1-4F46-9398-9C2789394498}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6524,7 +6531,7 @@
         <xdr:cNvPr id="2072" name="AutoShape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B33034D-9632-4579-9B5B-F39AADE4772C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B33034D-9632-4579-9B5B-F39AADE4772C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6578,7 +6585,7 @@
         <xdr:cNvPr id="2073" name="AutoShape 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0763714-7662-44FD-A416-85FA39FF2AE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0763714-7662-44FD-A416-85FA39FF2AE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6632,7 +6639,7 @@
         <xdr:cNvPr id="2074" name="AutoShape 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{016BD458-078F-4517-B7BB-8A6757D77DFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{016BD458-078F-4517-B7BB-8A6757D77DFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6686,7 +6693,7 @@
         <xdr:cNvPr id="2075" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9D4D648-920A-4EA7-8A33-CE58A3A24E9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B9D4D648-920A-4EA7-8A33-CE58A3A24E9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6740,7 +6747,7 @@
         <xdr:cNvPr id="2076" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A45E63-07BA-41FD-83EB-EB529B66CFF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56A45E63-07BA-41FD-83EB-EB529B66CFF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6794,7 +6801,7 @@
         <xdr:cNvPr id="2077" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B49325F-31F1-4321-8587-D16B78060D2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B49325F-31F1-4321-8587-D16B78060D2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6848,7 +6855,7 @@
         <xdr:cNvPr id="2078" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF0C28D5-B5B0-46E7-A174-ED333FD112DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF0C28D5-B5B0-46E7-A174-ED333FD112DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6891,13 +6898,13 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>20955</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5928360" cy="5086905"/>
+    <xdr:ext cx="5928360" cy="1814599"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="70" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09ADCFA6-45C9-4197-9DDF-FC8971D2683A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09ADCFA6-45C9-4197-9DDF-FC8971D2683A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6905,8 +6912,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11102340" y="201930"/>
-          <a:ext cx="5928360" cy="5086905"/>
+          <a:off x="10054590" y="211455"/>
+          <a:ext cx="5928360" cy="1814599"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6950,68 +6957,15 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
-            <a:t>(1) Check missing historical data. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>The new_data corresponds to all combinations of possible missing data that we have identified for the past twenty years. </a:t>
+            <a:t>(1) </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>We searched whether any data was entered one year for a given emu, habitat type or lifestage. We also searched whether there might be one entry with an aggegated data attribute (e.g. AL habitat, XX_total for emu, YS for lifestage). When that match did not exist, we generated a line with NP in the database, that is: no data was ever collected for this stage and this habitat, and this was identified as not pertinent (NP), with a comment 'no landings ever recorded in the db'. If a fishery occured sometime in the past, but no data was collected later, we suppose the fishery stopped; the data are marked as NP not pertinent, with the comment 'landings ended in  &lt;year&gt;'.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
             <a:rPr lang="en-GB" sz="1100" b="1"/>
-            <a:t>(2) Insert new data : it's already pre-filled</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>In the three last years, data might be missing because it was not completely collected. Then the data is marked as NC (not collected). If you have new data to fill in, you will remove the NC, add the value, change the eel_datasource to dc_202X (202X=the current year). In current year data is generally not collected. You can remove those lines if you have no data.</a:t>
+            <a:t>Insert new data </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>So in practise, please check that data marked as NP are correct (use a filter for NP data). Then check for NC data and try to replace with new data by removing the NC attribute, setting a value, and change the datasource to dc_202X. Then screen for current year lines and remove if you have no data yet. And please remember, you have to fill in eel_value OR eel_missvalueqal, never both, always one or the other.</a:t>
-          </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-GB" sz="1100"/>
@@ -7086,7 +7040,7 @@
         <xdr:cNvPr id="29" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6452711-6F0E-4C67-B998-35650D2E0F53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6452711-6F0E-4C67-B998-35650D2E0F53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7140,7 +7094,7 @@
         <xdr:cNvPr id="2079" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE0149C2-B42F-4E65-B5F9-71CE1BD0DB0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE0149C2-B42F-4E65-B5F9-71CE1BD0DB0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7194,7 +7148,7 @@
         <xdr:cNvPr id="39" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C45D8EB-DC04-4743-9C3C-633526EE63F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C45D8EB-DC04-4743-9C3C-633526EE63F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7303,7 +7257,7 @@
         <xdr:cNvPr id="74" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2CF0F56-F27D-4E24-B60A-BFBBC99AB87E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CF0F56-F27D-4E24-B60A-BFBBC99AB87E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7361,7 +7315,7 @@
         <xdr:cNvPr id="3" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{942E7559-A5C9-4082-B0CB-5536072CFECC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{942E7559-A5C9-4082-B0CB-5536072CFECC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7667,7 +7621,7 @@
         <xdr:cNvPr id="5" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2CF0F56-F27D-4E24-B60A-BFBBC99AB87E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CF0F56-F27D-4E24-B60A-BFBBC99AB87E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7725,7 +7679,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9AF4897-A2E3-4EEB-A251-3C623B3BB003}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9AF4897-A2E3-4EEB-A251-3C623B3BB003}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7925,7 +7879,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7973,7 +7927,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8021,7 +7975,7 @@
         <xdr:cNvPr id="3" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8064,7 +8018,7 @@
         <xdr:cNvPr id="4" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8381,7 +8335,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8395,7 +8349,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15461,8 +15415,8 @@
   </sheetPr>
   <dimension ref="A1:M999"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30483,19 +30437,32 @@
       <c r="M999" s="42"/>
     </row>
   </sheetData>
-  <dataValidations yWindow="427" count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Kg" sqref="B1:B999">
+  <dataValidations yWindow="427" count="3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Year" prompt="eg 2016" sqref="B1:B1048576">
       <formula1>0</formula1>
       <formula2>10000000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Maximum value 2020" promptTitle="Year" prompt="eg 2016" sqref="A1:A999">
-      <formula1>1900</formula1>
-      <formula2>2021</formula2>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="kg" sqref="D1:D1048576"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="number" sqref="C1:C1048576">
+      <formula1>0</formula1>
+      <formula2>9.99999999999999E+31</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" yWindow="427" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Maximum value 2020" promptTitle="Year" prompt="eg 2016">
+          <x14:formula1>
+            <xm:f>tr_typeseries_ser!$B$10:$B$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -60593,7 +60560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A33" sqref="A33:C34"/>
     </sheetView>
   </sheetViews>
@@ -62662,15 +62629,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -62851,27 +62815,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDA202F6-15F1-40CB-A896-D892DBDE8D34}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1393A99-5588-497D-BB74-04B316B13DCC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -62896,9 +62854,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1393A99-5588-497D-BB74-04B316B13DCC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDA202F6-15F1-40CB-A896-D892DBDE8D34}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>